--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="19065" windowHeight="7395" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="19070" windowHeight="7400" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
     <sheet name="RegisterUser" sheetId="2" r:id="rId2"/>
     <sheet name="Contacts" sheetId="4" r:id="rId3"/>
     <sheet name="Organization" sheetId="3" r:id="rId4"/>
+    <sheet name="Address" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>SearchPage</t>
   </si>
@@ -170,13 +171,35 @@
   </si>
   <si>
     <t>Wiprow</t>
+  </si>
+  <si>
+    <t>Mani</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Gangadharapp 
+Layout</t>
+  </si>
+  <si>
+    <t>PapareddyPalya</t>
+  </si>
+  <si>
+    <t>Annapoorneshwari
+Nagar</t>
+  </si>
+  <si>
+    <t>Nagarabhavi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -356,6 +379,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -366,6 +392,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -414,7 +443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,7 +478,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -664,19 +693,19 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.0"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="56.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.85546875"/>
-    <col min="4" max="4" customWidth="true" width="13.140625"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.85546875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.140625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.42578125"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +720,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
@@ -706,7 +735,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="13"/>
@@ -717,7 +746,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>35</v>
       </c>
@@ -732,7 +761,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -761,7 +790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
         <v>13</v>
@@ -788,7 +817,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
@@ -803,7 +832,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>26</v>
       </c>
@@ -818,7 +847,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -829,7 +858,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>23</v>
       </c>
@@ -844,10 +873,10 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E16" s="6"/>
     </row>
   </sheetData>
@@ -867,13 +896,13 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.42578125"/>
-    <col min="2" max="2" customWidth="true" width="62.7109375"/>
+    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="2" max="2" width="62.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -881,57 +910,57 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <v>9673662371</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -952,22 +981,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.0"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="28"/>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>49</v>
       </c>
@@ -975,7 +1006,7 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="28" t="s">
         <v>50</v>
       </c>
@@ -985,43 +1016,43 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -1040,13 +1071,13 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.42578125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0"/>
+    <col min="1" max="1" width="41.453125" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>37</v>
       </c>
@@ -1057,7 +1088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>40</v>
       </c>
@@ -1065,12 +1096,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>43</v>
       </c>
@@ -1081,30 +1112,75 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>47</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="28"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
